--- a/corona-kanjyajyokyo.xlsx
+++ b/corona-kanjyajyokyo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="380">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -2923,20 +2923,6 @@
     <t>姫路</t>
   </si>
   <si>
-    <t>No.342の同居人</t>
-    <rPh sb="7" eb="10">
-      <t>ドウキョニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.341の同居人</t>
-    <rPh sb="7" eb="10">
-      <t>ドウキョニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -3299,11 +3285,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>4/13 24時現在</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>行動歴調査中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/14 24時現在</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神戸市</t>
+    <rPh sb="0" eb="2">
+      <t>コウベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫県職員</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同居者が感染症患者</t>
+    <rPh sb="0" eb="3">
+      <t>ドウキョシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンセンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンジャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4484,8 +4521,8 @@
   </sheetPr>
   <dimension ref="B1:AC395"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="H381" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K386" sqref="K386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4557,7 +4594,7 @@
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4" t="s">
@@ -4608,7 +4645,7 @@
         <v>78</v>
       </c>
       <c r="P4" s="89" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="93" t="s">
         <v>248</v>
@@ -4681,7 +4718,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>18</v>
@@ -4693,7 +4730,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -4730,7 +4767,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>17</v>
@@ -4920,7 +4957,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>32</v>
@@ -4938,7 +4975,7 @@
         <v>183</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -4969,7 +5006,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F12" s="62" t="s">
         <v>32</v>
@@ -4987,7 +5024,7 @@
         <v>183</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -5018,7 +5055,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F13" s="62" t="s">
         <v>32</v>
@@ -5036,7 +5073,7 @@
         <v>183</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -5067,7 +5104,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>32</v>
@@ -5085,7 +5122,7 @@
         <v>183</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -5134,7 +5171,7 @@
         <v>192</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -5180,10 +5217,10 @@
         <v>43931</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -5220,7 +5257,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>17</v>
@@ -5229,7 +5266,7 @@
         <v>43913</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K17" s="41" t="s">
         <v>103</v>
@@ -5278,10 +5315,10 @@
         <v>43930</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -5327,10 +5364,10 @@
         <v>43930</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -5370,16 +5407,16 @@
         <v>9</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I20" s="12">
         <v>43922</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -5425,10 +5462,10 @@
         <v>43918</v>
       </c>
       <c r="J21" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K21" s="41" t="s">
         <v>357</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>359</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -5474,7 +5511,7 @@
         <v>43923</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>186</v>
@@ -5517,13 +5554,13 @@
         <v>132</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I23" s="12">
         <v>43927</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K23" s="41" t="s">
         <v>186</v>
@@ -5560,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>205</v>
@@ -5609,7 +5646,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>205</v>
@@ -5658,7 +5695,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>205</v>
@@ -5707,7 +5744,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>205</v>
@@ -5756,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>205</v>
@@ -5805,7 +5842,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>205</v>
@@ -5854,7 +5891,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>205</v>
@@ -5903,7 +5940,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>205</v>
@@ -6050,7 +6087,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>255</v>
@@ -6105,7 +6142,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I35" s="12">
         <v>43917</v>
@@ -6154,7 +6191,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I36" s="12">
         <v>43922</v>
@@ -6203,7 +6240,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I37" s="12">
         <v>43929</v>
@@ -6212,7 +6249,7 @@
         <v>66</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -6252,7 +6289,7 @@
         <v>43</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I38" s="12">
         <v>43924</v>
@@ -6261,7 +6298,7 @@
         <v>66</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -6301,7 +6338,7 @@
         <v>43</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I39" s="12">
         <v>43923</v>
@@ -6399,7 +6436,7 @@
         <v>71</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I41" s="12">
         <v>43925</v>
@@ -6457,7 +6494,7 @@
         <v>57</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -6497,7 +6534,7 @@
         <v>71</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I43" s="12">
         <v>43923</v>
@@ -6506,7 +6543,7 @@
         <v>57</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -6546,7 +6583,7 @@
         <v>235</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I44" s="12">
         <v>43924</v>
@@ -6604,7 +6641,7 @@
         <v>57</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -6644,7 +6681,7 @@
         <v>261</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I46" s="12">
         <v>43927</v>
@@ -6702,7 +6739,7 @@
         <v>57</v>
       </c>
       <c r="K47" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -6730,10 +6767,10 @@
         <v>43932</v>
       </c>
       <c r="D48" s="10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F48" s="62" t="s">
         <v>31</v>
@@ -6751,7 +6788,7 @@
         <v>45</v>
       </c>
       <c r="K48" s="41" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -6779,7 +6816,7 @@
         <v>43932</v>
       </c>
       <c r="D49" s="10">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>26</v>
@@ -6791,7 +6828,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I49" s="12">
         <v>43923</v>
@@ -6800,7 +6837,7 @@
         <v>45</v>
       </c>
       <c r="K49" s="41" t="s">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -6831,7 +6868,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F50" s="62" t="s">
         <v>31</v>
@@ -6840,16 +6877,16 @@
         <v>5</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="I50" s="12">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K50" s="41" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -6889,7 +6926,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I51" s="47">
         <v>43930</v>
@@ -6935,16 +6972,16 @@
         <v>32</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="I52" s="47">
+        <v>43920</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K52" s="41" t="s">
         <v>186</v>
@@ -7180,16 +7217,16 @@
         <v>32</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="I57" s="47">
+        <v>43928</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K57" s="41" t="s">
         <v>186</v>
@@ -7339,7 +7376,7 @@
         <v>192</v>
       </c>
       <c r="K60" s="41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
@@ -7388,7 +7425,7 @@
         <v>183</v>
       </c>
       <c r="K61" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -7437,7 +7474,7 @@
         <v>183</v>
       </c>
       <c r="K62" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
@@ -7486,7 +7523,7 @@
         <v>183</v>
       </c>
       <c r="K63" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
@@ -7535,7 +7572,7 @@
         <v>183</v>
       </c>
       <c r="K64" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -7584,7 +7621,7 @@
         <v>183</v>
       </c>
       <c r="K65" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
@@ -7633,7 +7670,7 @@
         <v>183</v>
       </c>
       <c r="K66" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
@@ -7682,7 +7719,7 @@
         <v>183</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
@@ -7731,7 +7768,7 @@
         <v>183</v>
       </c>
       <c r="K68" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
@@ -7780,7 +7817,7 @@
         <v>183</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
@@ -7829,7 +7866,7 @@
         <v>183</v>
       </c>
       <c r="K70" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -7878,7 +7915,7 @@
         <v>183</v>
       </c>
       <c r="K71" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
@@ -7927,7 +7964,7 @@
         <v>183</v>
       </c>
       <c r="K72" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
@@ -7976,7 +8013,7 @@
         <v>183</v>
       </c>
       <c r="K73" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
@@ -8806,7 +8843,7 @@
         <v>43920</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K90" s="41" t="s">
         <v>186</v>
@@ -8855,10 +8892,10 @@
         <v>43928</v>
       </c>
       <c r="J91" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K91" s="41" t="s">
         <v>365</v>
-      </c>
-      <c r="K91" s="41" t="s">
-        <v>367</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
@@ -8895,16 +8932,16 @@
         <v>32</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="I92" s="47">
+        <v>43921</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="K92" s="41" t="s">
         <v>186</v>
@@ -8944,16 +8981,16 @@
         <v>32</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="I93" s="47">
+        <v>43927</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="K93" s="41" t="s">
         <v>186</v>
@@ -9002,10 +9039,10 @@
         <v>43928</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K94" s="41" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
@@ -9042,16 +9079,16 @@
         <v>32</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I95" s="11" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="I95" s="47">
+        <v>43920</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="K95" s="41" t="s">
         <v>186</v>
@@ -9091,19 +9128,19 @@
         <v>32</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="I96" s="47">
+        <v>43924</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>186</v>
+        <v>379</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
@@ -9140,16 +9177,16 @@
         <v>32</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>205</v>
+        <v>376</v>
+      </c>
+      <c r="I97" s="47">
+        <v>43926</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="K97" s="41" t="s">
         <v>186</v>
@@ -9189,16 +9226,16 @@
         <v>32</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="I98" s="47">
         <v>43924</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K98" s="41" t="s">
         <v>186</v>
@@ -9287,16 +9324,16 @@
         <v>32</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>205</v>
+        <v>375</v>
+      </c>
+      <c r="I100" s="47">
+        <v>43921</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K100" s="41" t="s">
         <v>186</v>
@@ -9336,16 +9373,16 @@
         <v>32</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>205</v>
+        <v>96</v>
+      </c>
+      <c r="I101" s="47">
+        <v>43900</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K101" s="41" t="s">
         <v>186</v>
@@ -9385,16 +9422,16 @@
         <v>32</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>205</v>
+        <v>96</v>
+      </c>
+      <c r="I102" s="47">
+        <v>43923</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K102" s="41" t="s">
         <v>186</v>
@@ -9446,7 +9483,7 @@
         <v>183</v>
       </c>
       <c r="K103" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L103" s="10"/>
       <c r="M103" s="10"/>
@@ -10659,16 +10696,16 @@
         <v>32</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>205</v>
+        <v>96</v>
+      </c>
+      <c r="I128" s="47">
+        <v>43920</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="K128" s="41" t="s">
         <v>186</v>
@@ -14043,7 +14080,7 @@
         <v>71</v>
       </c>
       <c r="H197" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I197" s="12">
         <v>43920</v>
